--- a/data/labeled_data/rice_news_1-35.xlsx
+++ b/data/labeled_data/rice_news_1-35.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1598">
   <si>
     <t>#</t>
   </si>
@@ -2904,9 +2904,6 @@
   </si>
   <si>
     <t>https://agro.gov.vn/vn/tID31228_San-xuat-o-DBSCL-nhung-tro-ngai-Lien-ket-kho-tu-dau.html</t>
-  </si>
-  <si>
-    <t>rice</t>
   </si>
   <si>
     <t>ĐỒNG THÁP: TRỒNG LÚA CHO NĂNG SUẤT CAO NHƯNG LỢI NHUẬN GIẢM</t>
@@ -10965,7 +10962,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -11025,12 +11022,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -15053,62 +15044,78 @@
       <c r="G100" s="6">
         <v>1.0</v>
       </c>
-      <c r="H100" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="I100" s="20"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
+      <c r="H100" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="K100" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="L100" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101" ht="75.0" customHeight="1">
       <c r="A101" s="6">
         <v>99.0</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="D101" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="E101" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>472</v>
-      </c>
       <c r="G101" s="6">
         <v>1.0</v>
       </c>
-      <c r="H101" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="I101" s="20"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
+      <c r="H101" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="L101" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102" ht="75.0" customHeight="1">
       <c r="A102" s="6">
         <v>100.0</v>
       </c>
       <c r="B102" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="D102" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="E102" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="F102" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="G102" s="6">
         <v>1.0</v>
@@ -15134,19 +15141,19 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C103" s="8">
         <v>44900.0</v>
       </c>
       <c r="D103" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="G103" s="6">
         <v>1.0</v>
@@ -15172,19 +15179,19 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="D104" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="E104" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>486</v>
       </c>
       <c r="G104" s="6">
         <v>1.0</v>
@@ -15210,19 +15217,19 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C105" s="8">
         <v>44809.0</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="F105" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="G105" s="6">
         <v>1.0</v>
@@ -15248,19 +15255,19 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C106" s="8">
         <v>44598.0</v>
       </c>
       <c r="D106" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="G106" s="6">
         <v>1.0</v>
@@ -15286,19 +15293,19 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="D107" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="E107" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="F107" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>499</v>
       </c>
       <c r="G107" s="6">
         <v>1.0</v>
@@ -15324,19 +15331,19 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="D108" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="E108" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="F108" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>504</v>
       </c>
       <c r="G108" s="6">
         <v>1.0</v>
@@ -15362,19 +15369,19 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="D109" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="F109" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="G109" s="6">
         <v>1.0</v>
@@ -15400,19 +15407,19 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C110" s="8">
         <v>44626.0</v>
       </c>
       <c r="D110" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="F110" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="G110" s="6">
         <v>1.0</v>
@@ -15438,19 +15445,19 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C111" s="8">
         <v>44718.0</v>
       </c>
       <c r="D111" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E111" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="F111" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>517</v>
       </c>
       <c r="G111" s="6">
         <v>1.0</v>
@@ -15476,19 +15483,19 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="D112" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="E112" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="F112" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>522</v>
       </c>
       <c r="G112" s="6">
         <v>1.0</v>
@@ -15514,19 +15521,19 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="D113" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="E113" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="F113" s="11" t="s">
         <v>526</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>527</v>
       </c>
       <c r="G113" s="6">
         <v>1.0</v>
@@ -15552,19 +15559,19 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="D114" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="E114" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="F114" s="11" t="s">
         <v>531</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>532</v>
       </c>
       <c r="G114" s="6">
         <v>1.0</v>
@@ -15590,19 +15597,19 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="D115" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="E115" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="F115" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>537</v>
       </c>
       <c r="G115" s="6">
         <v>1.0</v>
@@ -15628,19 +15635,19 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C116" s="8">
         <v>44838.0</v>
       </c>
       <c r="D116" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="F116" s="11" t="s">
         <v>540</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>541</v>
       </c>
       <c r="G116" s="6">
         <v>1.0</v>
@@ -15666,19 +15673,19 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C117" s="8">
         <v>44808.0</v>
       </c>
       <c r="D117" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="F117" s="11" t="s">
         <v>544</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>545</v>
       </c>
       <c r="G117" s="6">
         <v>1.0</v>
@@ -15704,19 +15711,19 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C118" s="8">
         <v>44717.0</v>
       </c>
       <c r="D118" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="F118" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="G118" s="6">
         <v>1.0</v>
@@ -15742,19 +15749,19 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C119" s="8">
         <v>44625.0</v>
       </c>
       <c r="D119" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="F119" s="11" t="s">
         <v>552</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>553</v>
       </c>
       <c r="G119" s="6">
         <v>1.0</v>
@@ -15780,19 +15787,19 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="D120" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="E120" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="F120" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>558</v>
       </c>
       <c r="G120" s="6">
         <v>1.0</v>
@@ -15818,19 +15825,19 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="D121" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="E121" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="F121" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="G121" s="6">
         <v>1.0</v>
@@ -15856,19 +15863,19 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C122" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="D122" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="E122" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="F122" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="G122" s="6">
         <v>1.0</v>
@@ -15894,19 +15901,19 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C123" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="D123" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="E123" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="F123" s="11" t="s">
         <v>572</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="G123" s="6">
         <v>1.0</v>
@@ -15932,19 +15939,19 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C124" s="8">
         <v>44868.0</v>
       </c>
       <c r="D124" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="F124" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>577</v>
       </c>
       <c r="G124" s="6">
         <v>1.0</v>
@@ -15970,19 +15977,19 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C125" s="8">
         <v>44776.0</v>
       </c>
       <c r="D125" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="F125" s="11" t="s">
         <v>580</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="G125" s="6">
         <v>1.0</v>
@@ -16008,19 +16015,19 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="D126" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="E126" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="F126" s="11" t="s">
         <v>585</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="G126" s="6">
         <v>1.0</v>
@@ -16046,19 +16053,19 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C127" s="8">
         <v>44596.0</v>
       </c>
       <c r="D127" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="F127" s="11" t="s">
         <v>589</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>590</v>
       </c>
       <c r="G127" s="6">
         <v>1.0</v>
@@ -16084,19 +16091,19 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C128" s="8">
         <v>44745.0</v>
       </c>
       <c r="D128" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E128" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="F128" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>594</v>
       </c>
       <c r="G128" s="6">
         <v>1.0</v>
@@ -16122,19 +16129,19 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="D129" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="E129" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="F129" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="G129" s="6">
         <v>1.0</v>
@@ -16160,19 +16167,19 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="D130" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="E130" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="F130" s="11" t="s">
         <v>603</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>604</v>
       </c>
       <c r="G130" s="6">
         <v>1.0</v>
@@ -16198,19 +16205,19 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="D131" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="E131" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="F131" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>609</v>
       </c>
       <c r="G131" s="6">
         <v>1.0</v>
@@ -16236,19 +16243,19 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C132" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="D132" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="E132" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="F132" s="11" t="s">
         <v>613</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>614</v>
       </c>
       <c r="G132" s="6">
         <v>1.0</v>
@@ -16274,19 +16281,19 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="D133" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="E133" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="F133" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="G133" s="6">
         <v>1.0</v>
@@ -16312,19 +16319,19 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="D134" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="E134" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="F134" s="11" t="s">
         <v>623</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>624</v>
       </c>
       <c r="G134" s="6">
         <v>1.0</v>
@@ -16350,19 +16357,19 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="D135" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="E135" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="F135" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="G135" s="6">
         <v>1.0</v>
@@ -16388,19 +16395,19 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="C136" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="D136" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="E136" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="F136" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="G136" s="6">
         <v>1.0</v>
@@ -16426,19 +16433,19 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C137" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="D137" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="E137" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="F137" s="11" t="s">
         <v>638</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>639</v>
       </c>
       <c r="G137" s="6">
         <v>1.0</v>
@@ -16464,19 +16471,19 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="D138" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="E138" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="F138" s="11" t="s">
         <v>643</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>644</v>
       </c>
       <c r="G138" s="6">
         <v>1.0</v>
@@ -16502,19 +16509,19 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C139" s="8">
         <v>44836.0</v>
       </c>
       <c r="D139" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="F139" s="11" t="s">
         <v>647</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>648</v>
       </c>
       <c r="G139" s="6">
         <v>1.0</v>
@@ -16540,19 +16547,19 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C140" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="D140" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="E140" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="F140" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>653</v>
       </c>
       <c r="G140" s="6">
         <v>1.0</v>
@@ -16578,19 +16585,19 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C141" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="D141" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="E141" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="F141" s="11" t="s">
         <v>657</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>658</v>
       </c>
       <c r="G141" s="6">
         <v>1.0</v>
@@ -16616,19 +16623,19 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C142" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="D142" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="E142" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="F142" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="G142" s="6">
         <v>1.0</v>
@@ -16654,19 +16661,19 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C143" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="D143" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="E143" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="F143" s="11" t="s">
         <v>667</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>668</v>
       </c>
       <c r="G143" s="6">
         <v>1.0</v>
@@ -16692,19 +16699,19 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C144" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="D144" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="E144" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="F144" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="G144" s="6">
         <v>1.0</v>
@@ -16730,19 +16737,19 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C145" s="19">
         <v>44542.0</v>
       </c>
       <c r="D145" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E145" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="F145" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>677</v>
       </c>
       <c r="G145" s="6">
         <v>1.0</v>
@@ -16768,19 +16775,19 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C146" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="D146" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="E146" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="F146" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>682</v>
       </c>
       <c r="G146" s="6">
         <v>1.0</v>
@@ -16806,19 +16813,19 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C147" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="D147" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="E147" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="F147" s="11" t="s">
         <v>686</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>687</v>
       </c>
       <c r="G147" s="6">
         <v>1.0</v>
@@ -16844,19 +16851,19 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C148" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="D148" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="E148" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="F148" s="11" t="s">
         <v>691</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>692</v>
       </c>
       <c r="G148" s="6">
         <v>1.0</v>
@@ -16882,19 +16889,19 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C149" s="8">
         <v>44267.0</v>
       </c>
       <c r="D149" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E149" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="F149" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>696</v>
       </c>
       <c r="G149" s="6">
         <v>1.0</v>
@@ -16920,19 +16927,19 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C150" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="D150" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="E150" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="F150" s="11" t="s">
         <v>700</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>701</v>
       </c>
       <c r="G150" s="6">
         <v>1.0</v>
@@ -16958,19 +16965,19 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C151" s="8">
         <v>44451.0</v>
       </c>
       <c r="D151" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="F151" s="11" t="s">
         <v>704</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>705</v>
       </c>
       <c r="G151" s="6">
         <v>1.0</v>
@@ -16996,19 +17003,19 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C152" s="19">
         <v>44541.0</v>
       </c>
       <c r="D152" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="F152" s="11" t="s">
         <v>708</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>709</v>
       </c>
       <c r="G152" s="6">
         <v>1.0</v>
@@ -17034,19 +17041,19 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C153" s="8">
         <v>44539.0</v>
       </c>
       <c r="D153" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="E153" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="F153" s="11" t="s">
         <v>712</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>713</v>
       </c>
       <c r="G153" s="6">
         <v>1.0</v>
@@ -17072,19 +17079,19 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C154" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="D154" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="E154" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="F154" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>718</v>
       </c>
       <c r="G154" s="6">
         <v>1.0</v>
@@ -17110,19 +17117,19 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C155" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="D155" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="E155" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="F155" s="11" t="s">
         <v>722</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>723</v>
       </c>
       <c r="G155" s="6">
         <v>1.0</v>
@@ -17148,19 +17155,19 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="C156" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="D156" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="E156" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="F156" s="11" t="s">
         <v>727</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>728</v>
       </c>
       <c r="G156" s="6">
         <v>1.0</v>
@@ -17186,19 +17193,19 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C157" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="D157" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="E157" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="F157" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>733</v>
       </c>
       <c r="G157" s="6">
         <v>1.0</v>
@@ -17224,19 +17231,19 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C158" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="D158" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="E158" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="F158" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>738</v>
       </c>
       <c r="G158" s="6">
         <v>1.0</v>
@@ -17262,19 +17269,19 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C159" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="D159" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="E159" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="F159" s="11" t="s">
         <v>742</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>743</v>
       </c>
       <c r="G159" s="6">
         <v>1.0</v>
@@ -17300,19 +17307,19 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C160" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="D160" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="E160" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="F160" s="11" t="s">
         <v>747</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>748</v>
       </c>
       <c r="G160" s="6">
         <v>1.0</v>
@@ -17338,19 +17345,19 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C161" s="8">
         <v>44450.0</v>
       </c>
       <c r="D161" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="F161" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>752</v>
       </c>
       <c r="G161" s="6">
         <v>1.0</v>
@@ -17376,19 +17383,19 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="D162" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="E162" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="F162" s="11" t="s">
         <v>756</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>757</v>
       </c>
       <c r="G162" s="6">
         <v>1.0</v>
@@ -17414,19 +17421,19 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C163" s="8">
         <v>44295.0</v>
       </c>
       <c r="D163" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="F163" s="11" t="s">
         <v>760</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>761</v>
       </c>
       <c r="G163" s="6">
         <v>1.0</v>
@@ -17452,19 +17459,19 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="D164" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="E164" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="F164" s="11" t="s">
         <v>765</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>766</v>
       </c>
       <c r="G164" s="6">
         <v>1.0</v>
@@ -17490,19 +17497,19 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C165" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="D165" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="E165" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="F165" s="11" t="s">
         <v>770</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>771</v>
       </c>
       <c r="G165" s="6">
         <v>1.0</v>
@@ -17528,19 +17535,19 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="D166" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="E166" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="F166" s="11" t="s">
         <v>775</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>776</v>
       </c>
       <c r="G166" s="6">
         <v>1.0</v>
@@ -17566,19 +17573,19 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C167" s="8">
         <v>44477.0</v>
       </c>
       <c r="D167" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="E167" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="F167" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>780</v>
       </c>
       <c r="G167" s="6">
         <v>1.0</v>
@@ -17604,19 +17611,19 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C168" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="D168" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="E168" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="F168" s="11" t="s">
         <v>784</v>
-      </c>
-      <c r="F168" s="11" t="s">
-        <v>785</v>
       </c>
       <c r="G168" s="6">
         <v>1.0</v>
@@ -17642,19 +17649,19 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C169" s="8">
         <v>44356.0</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="F169" s="11" t="s">
         <v>788</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>789</v>
       </c>
       <c r="G169" s="6">
         <v>1.0</v>
@@ -17680,19 +17687,19 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C170" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="D170" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="E170" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="F170" s="11" t="s">
         <v>793</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>794</v>
       </c>
       <c r="G170" s="6">
         <v>1.0</v>
@@ -17718,19 +17725,19 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C171" s="8">
         <v>44539.0</v>
       </c>
       <c r="D171" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="F171" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>798</v>
       </c>
       <c r="G171" s="6">
         <v>1.0</v>
@@ -17756,19 +17763,19 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C172" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="D172" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="E172" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="F172" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>803</v>
       </c>
       <c r="G172" s="6">
         <v>1.0</v>
@@ -17794,19 +17801,19 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C173" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="D173" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="E173" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="F173" s="11" t="s">
         <v>807</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>808</v>
       </c>
       <c r="G173" s="6">
         <v>1.0</v>
@@ -17832,19 +17839,19 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C174" s="8">
         <v>44324.0</v>
       </c>
       <c r="D174" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="E174" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="F174" s="11" t="s">
         <v>810</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>811</v>
       </c>
       <c r="G174" s="6">
         <v>1.0</v>
@@ -17870,19 +17877,19 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C175" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="C175" s="14" t="s">
+      <c r="D175" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="E175" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="F175" s="11" t="s">
         <v>815</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>816</v>
       </c>
       <c r="G175" s="6">
         <v>1.0</v>
@@ -17908,19 +17915,19 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C176" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="C176" s="14" t="s">
+      <c r="D176" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="E176" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="F176" s="11" t="s">
         <v>820</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>821</v>
       </c>
       <c r="G176" s="6">
         <v>1.0</v>
@@ -17946,19 +17953,19 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C177" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="D177" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="E177" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="F177" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>826</v>
       </c>
       <c r="G177" s="6">
         <v>1.0</v>
@@ -17984,19 +17991,19 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C178" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="D178" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="E178" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="F178" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="G178" s="6">
         <v>1.0</v>
@@ -18022,19 +18029,19 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C179" s="8">
         <v>44384.0</v>
       </c>
       <c r="D179" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E179" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="F179" s="11" t="s">
         <v>834</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>835</v>
       </c>
       <c r="G179" s="6">
         <v>1.0</v>
@@ -18060,19 +18067,19 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C180" s="8">
         <v>44537.0</v>
       </c>
       <c r="D180" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="F180" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>839</v>
       </c>
       <c r="G180" s="6">
         <v>1.0</v>
@@ -18098,19 +18105,19 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C181" s="8">
         <v>44323.0</v>
       </c>
       <c r="D181" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="E181" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="F181" s="11" t="s">
         <v>842</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>843</v>
       </c>
       <c r="G181" s="6">
         <v>1.0</v>
@@ -18136,19 +18143,19 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C182" s="8">
         <v>44292.0</v>
       </c>
       <c r="D182" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="E182" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="F182" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>847</v>
       </c>
       <c r="G182" s="6">
         <v>1.0</v>
@@ -18174,19 +18181,19 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C183" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="D183" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="E183" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="F183" s="11" t="s">
         <v>851</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>852</v>
       </c>
       <c r="G183" s="6">
         <v>1.0</v>
@@ -18212,19 +18219,19 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C184" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="D184" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="E184" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="F184" s="11" t="s">
         <v>856</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>857</v>
       </c>
       <c r="G184" s="6">
         <v>1.0</v>
@@ -18250,19 +18257,19 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C185" s="8">
         <v>44321.0</v>
       </c>
       <c r="D185" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="E185" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="F185" s="11" t="s">
         <v>860</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>861</v>
       </c>
       <c r="G185" s="6">
         <v>1.0</v>
@@ -18288,19 +18295,19 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C186" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="D186" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="E186" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="F186" s="11" t="s">
         <v>865</v>
-      </c>
-      <c r="F186" s="11" t="s">
-        <v>866</v>
       </c>
       <c r="G186" s="6">
         <v>1.0</v>
@@ -18326,19 +18333,19 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C187" s="8">
         <v>44352.0</v>
       </c>
       <c r="D187" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="F187" s="11" t="s">
         <v>869</v>
-      </c>
-      <c r="F187" s="11" t="s">
-        <v>870</v>
       </c>
       <c r="G187" s="6">
         <v>1.0</v>
@@ -18364,19 +18371,19 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C188" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="C188" s="14" t="s">
+      <c r="D188" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="E188" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="F188" s="11" t="s">
         <v>874</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>875</v>
       </c>
       <c r="G188" s="6">
         <v>1.0</v>
@@ -18402,19 +18409,19 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C189" s="8">
         <v>44291.0</v>
       </c>
       <c r="D189" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="E189" s="7" t="s">
+      <c r="F189" s="11" t="s">
         <v>878</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>879</v>
       </c>
       <c r="G189" s="6">
         <v>1.0</v>
@@ -18440,19 +18447,19 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="C190" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="D190" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="E190" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="F190" s="11" t="s">
         <v>883</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>884</v>
       </c>
       <c r="G190" s="6">
         <v>1.0</v>
@@ -18478,19 +18485,19 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C191" s="8">
         <v>44233.0</v>
       </c>
       <c r="D191" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="E191" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="E191" s="7" t="s">
+      <c r="F191" s="11" t="s">
         <v>887</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>888</v>
       </c>
       <c r="G191" s="6">
         <v>1.0</v>
@@ -18516,19 +18523,19 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C192" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="C192" s="14" t="s">
+      <c r="D192" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="E192" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="F192" s="11" t="s">
         <v>892</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>893</v>
       </c>
       <c r="G192" s="6">
         <v>1.0</v>
@@ -18554,19 +18561,19 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C193" s="14" t="s">
         <v>894</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="D193" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="E193" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="F193" s="11" t="s">
         <v>897</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>898</v>
       </c>
       <c r="G193" s="6">
         <v>1.0</v>
@@ -18592,19 +18599,19 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="C194" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="C194" s="14" t="s">
+      <c r="D194" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="E194" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="F194" s="11" t="s">
         <v>902</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>903</v>
       </c>
       <c r="G194" s="6">
         <v>1.0</v>
@@ -18630,19 +18637,19 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C195" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="D195" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="E195" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="F195" s="11" t="s">
         <v>907</v>
-      </c>
-      <c r="F195" s="11" t="s">
-        <v>908</v>
       </c>
       <c r="G195" s="6">
         <v>1.0</v>
@@ -18668,19 +18675,19 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C196" s="8">
         <v>44260.0</v>
       </c>
       <c r="D196" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="F196" s="11" t="s">
         <v>911</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>912</v>
       </c>
       <c r="G196" s="6">
         <v>1.0</v>
@@ -18706,19 +18713,19 @@
         <v>195.0</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C197" s="8">
         <v>44351.0</v>
       </c>
       <c r="D197" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="F197" s="11" t="s">
         <v>915</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>916</v>
       </c>
       <c r="G197" s="6">
         <v>1.0</v>
@@ -18744,19 +18751,19 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C198" s="8">
         <v>44473.0</v>
       </c>
       <c r="D198" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="E198" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="E198" s="7" t="s">
+      <c r="F198" s="11" t="s">
         <v>919</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>920</v>
       </c>
       <c r="G198" s="6">
         <v>1.0</v>
@@ -18782,19 +18789,19 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C199" s="8">
         <v>44443.0</v>
       </c>
       <c r="D199" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="E199" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="F199" s="11" t="s">
         <v>923</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>924</v>
       </c>
       <c r="G199" s="6">
         <v>1.0</v>
@@ -18820,19 +18827,19 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C200" s="8">
         <v>44200.0</v>
       </c>
       <c r="D200" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="E200" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="F200" s="11" t="s">
         <v>927</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>928</v>
       </c>
       <c r="G200" s="6">
         <v>1.0</v>
@@ -18858,19 +18865,19 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C201" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="C201" s="14" t="s">
+      <c r="D201" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="E201" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="F201" s="11" t="s">
         <v>932</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>933</v>
       </c>
       <c r="G201" s="6">
         <v>1.0</v>
@@ -18896,19 +18903,19 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C202" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="D202" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="E202" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="F202" s="11" t="s">
         <v>937</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>938</v>
       </c>
       <c r="G202" s="6">
         <v>1.0</v>
@@ -18934,19 +18941,19 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C203" s="8">
         <v>44317.0</v>
       </c>
-      <c r="D203" s="23" t="s">
+      <c r="D203" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="E203" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="F203" s="11" t="s">
         <v>940</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>941</v>
       </c>
       <c r="G203" s="6">
         <v>1.0</v>
@@ -18972,19 +18979,19 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="C204" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="C204" s="14" t="s">
+      <c r="D204" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="E204" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="F204" s="11" t="s">
         <v>945</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>946</v>
       </c>
       <c r="G204" s="6">
         <v>1.0</v>
@@ -19010,19 +19017,19 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="C205" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="C205" s="14" t="s">
+      <c r="D205" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="E205" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="E205" s="7" t="s">
+      <c r="F205" s="11" t="s">
         <v>950</v>
-      </c>
-      <c r="F205" s="11" t="s">
-        <v>951</v>
       </c>
       <c r="G205" s="6">
         <v>1.0</v>
@@ -19048,19 +19055,19 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C206" s="8">
         <v>44501.0</v>
       </c>
       <c r="D206" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="E206" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="E206" s="7" t="s">
+      <c r="F206" s="11" t="s">
         <v>954</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>955</v>
       </c>
       <c r="G206" s="6">
         <v>1.0</v>
@@ -19086,19 +19093,19 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="C207" s="14" t="s">
         <v>956</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="D207" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="E207" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="E207" s="7" t="s">
+      <c r="F207" s="11" t="s">
         <v>959</v>
-      </c>
-      <c r="F207" s="11" t="s">
-        <v>960</v>
       </c>
       <c r="G207" s="6">
         <v>1.0</v>
@@ -19124,19 +19131,19 @@
         <v>206.0</v>
       </c>
       <c r="B208" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C208" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="D208" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="E208" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="F208" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="F208" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="G208" s="6">
         <v>1.0</v>
@@ -19162,19 +19169,19 @@
         <v>207.0</v>
       </c>
       <c r="B209" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="C209" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="D209" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="E209" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="F209" s="11" t="s">
         <v>969</v>
-      </c>
-      <c r="F209" s="11" t="s">
-        <v>970</v>
       </c>
       <c r="G209" s="6">
         <v>1.0</v>
@@ -19200,19 +19207,19 @@
         <v>208.0</v>
       </c>
       <c r="B210" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="C210" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="D210" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="E210" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="E210" s="7" t="s">
+      <c r="F210" s="11" t="s">
         <v>974</v>
-      </c>
-      <c r="F210" s="11" t="s">
-        <v>975</v>
       </c>
       <c r="G210" s="6">
         <v>1.0</v>
@@ -19238,19 +19245,19 @@
         <v>209.0</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C211" s="8">
         <v>44378.0</v>
       </c>
       <c r="D211" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="E211" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="E211" s="7" t="s">
+      <c r="F211" s="11" t="s">
         <v>978</v>
-      </c>
-      <c r="F211" s="11" t="s">
-        <v>979</v>
       </c>
       <c r="G211" s="6">
         <v>1.0</v>
@@ -19276,19 +19283,19 @@
         <v>210.0</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C212" s="8">
         <v>44287.0</v>
       </c>
       <c r="D212" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="E212" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="E212" s="7" t="s">
+      <c r="F212" s="11" t="s">
         <v>982</v>
-      </c>
-      <c r="F212" s="11" t="s">
-        <v>983</v>
       </c>
       <c r="G212" s="6">
         <v>1.0</v>
@@ -19314,19 +19321,19 @@
         <v>211.0</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C213" s="8">
         <v>44317.0</v>
       </c>
       <c r="D213" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="E213" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="F213" s="11" t="s">
         <v>986</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>987</v>
       </c>
       <c r="G213" s="6">
         <v>1.0</v>
@@ -19352,19 +19359,19 @@
         <v>212.0</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C214" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="C214" s="14" t="s">
+      <c r="D214" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="E214" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="E214" s="7" t="s">
+      <c r="F214" s="11" t="s">
         <v>991</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>992</v>
       </c>
       <c r="G214" s="6">
         <v>1.0</v>
@@ -19390,19 +19397,19 @@
         <v>213.0</v>
       </c>
       <c r="B215" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C215" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="D215" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="E215" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="E215" s="7" t="s">
+      <c r="F215" s="11" t="s">
         <v>996</v>
-      </c>
-      <c r="F215" s="11" t="s">
-        <v>997</v>
       </c>
       <c r="G215" s="6">
         <v>1.0</v>
@@ -19428,19 +19435,19 @@
         <v>214.0</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C216" s="8">
         <v>43993.0</v>
       </c>
       <c r="D216" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="F216" s="11" t="s">
         <v>1000</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>1001</v>
       </c>
       <c r="G216" s="6">
         <v>1.0</v>
@@ -19466,19 +19473,19 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C217" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="D217" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="E217" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="E217" s="7" t="s">
+      <c r="F217" s="11" t="s">
         <v>1005</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>1006</v>
       </c>
       <c r="G217" s="6">
         <v>1.0</v>
@@ -19504,19 +19511,19 @@
         <v>216.0</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C218" s="19">
         <v>44146.0</v>
       </c>
       <c r="D218" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E218" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="F218" s="11" t="s">
         <v>1008</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>1009</v>
       </c>
       <c r="G218" s="6">
         <v>1.0</v>
@@ -19542,19 +19549,19 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C219" s="8">
         <v>44055.0</v>
       </c>
       <c r="D219" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E219" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="E219" s="7" t="s">
+      <c r="F219" s="11" t="s">
         <v>1012</v>
-      </c>
-      <c r="F219" s="11" t="s">
-        <v>1013</v>
       </c>
       <c r="G219" s="6">
         <v>1.0</v>
@@ -19580,19 +19587,19 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C220" s="8">
         <v>43994.0</v>
       </c>
       <c r="D220" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E220" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="F220" s="11" t="s">
         <v>1016</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>1017</v>
       </c>
       <c r="G220" s="6">
         <v>1.0</v>
@@ -19618,19 +19625,19 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C221" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="D221" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="E221" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="E221" s="7" t="s">
+      <c r="F221" s="11" t="s">
         <v>1021</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>1022</v>
       </c>
       <c r="G221" s="6">
         <v>1.0</v>
@@ -19656,19 +19663,19 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C222" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="D222" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="E222" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="E222" s="7" t="s">
+      <c r="F222" s="11" t="s">
         <v>1026</v>
-      </c>
-      <c r="F222" s="11" t="s">
-        <v>1027</v>
       </c>
       <c r="G222" s="6">
         <v>1.0</v>
@@ -19694,19 +19701,19 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C223" s="8">
         <v>43932.0</v>
       </c>
       <c r="D223" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="E223" s="7" t="s">
+      <c r="F223" s="11" t="s">
         <v>1030</v>
-      </c>
-      <c r="F223" s="11" t="s">
-        <v>1031</v>
       </c>
       <c r="G223" s="6">
         <v>1.0</v>
@@ -19732,19 +19739,19 @@
         <v>222.0</v>
       </c>
       <c r="B224" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C224" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="D224" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="D224" s="9" t="s">
+      <c r="E224" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="E224" s="7" t="s">
+      <c r="F224" s="11" t="s">
         <v>1035</v>
-      </c>
-      <c r="F224" s="11" t="s">
-        <v>1036</v>
       </c>
       <c r="G224" s="6">
         <v>1.0</v>
@@ -19770,19 +19777,19 @@
         <v>223.0</v>
       </c>
       <c r="B225" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C225" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="C225" s="14" t="s">
+      <c r="D225" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="D225" s="9" t="s">
+      <c r="E225" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="E225" s="7" t="s">
+      <c r="F225" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>1041</v>
       </c>
       <c r="G225" s="6">
         <v>1.0</v>
@@ -19808,19 +19815,19 @@
         <v>224.0</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C226" s="8">
         <v>43871.0</v>
       </c>
       <c r="D226" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="F226" s="11" t="s">
         <v>1044</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>1045</v>
       </c>
       <c r="G226" s="6">
         <v>1.0</v>
@@ -19846,19 +19853,19 @@
         <v>225.0</v>
       </c>
       <c r="B227" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C227" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="D227" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="E227" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="E227" s="7" t="s">
+      <c r="F227" s="11" t="s">
         <v>1049</v>
-      </c>
-      <c r="F227" s="11" t="s">
-        <v>1050</v>
       </c>
       <c r="G227" s="6">
         <v>1.0</v>
@@ -19884,19 +19891,19 @@
         <v>226.0</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C228" s="8">
         <v>43932.0</v>
       </c>
       <c r="D228" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E228" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="E228" s="7" t="s">
+      <c r="F228" s="11" t="s">
         <v>1053</v>
-      </c>
-      <c r="F228" s="11" t="s">
-        <v>1054</v>
       </c>
       <c r="G228" s="6">
         <v>1.0</v>
@@ -19922,19 +19929,19 @@
         <v>227.0</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C229" s="8">
         <v>43840.0</v>
       </c>
       <c r="D229" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E229" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="E229" s="7" t="s">
+      <c r="F229" s="11" t="s">
         <v>1057</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>1058</v>
       </c>
       <c r="G229" s="6">
         <v>1.0</v>
@@ -19960,19 +19967,19 @@
         <v>228.0</v>
       </c>
       <c r="B230" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C230" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="C230" s="14" t="s">
+      <c r="D230" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="E230" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="F230" s="11" t="s">
         <v>1062</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>1063</v>
       </c>
       <c r="G230" s="6">
         <v>1.0</v>
@@ -19998,19 +20005,19 @@
         <v>229.0</v>
       </c>
       <c r="B231" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C231" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="C231" s="14" t="s">
+      <c r="D231" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="E231" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="E231" s="7" t="s">
+      <c r="F231" s="11" t="s">
         <v>1067</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>1068</v>
       </c>
       <c r="G231" s="6">
         <v>1.0</v>
@@ -20036,19 +20043,19 @@
         <v>230.0</v>
       </c>
       <c r="B232" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C232" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="C232" s="14" t="s">
+      <c r="D232" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="E232" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="E232" s="7" t="s">
+      <c r="F232" s="11" t="s">
         <v>1072</v>
-      </c>
-      <c r="F232" s="11" t="s">
-        <v>1073</v>
       </c>
       <c r="G232" s="6">
         <v>1.0</v>
@@ -20074,19 +20081,19 @@
         <v>231.0</v>
       </c>
       <c r="B233" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C233" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="D233" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="E233" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="F233" s="11" t="s">
         <v>1077</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>1078</v>
       </c>
       <c r="G233" s="6">
         <v>1.0</v>
@@ -20112,19 +20119,19 @@
         <v>232.0</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C234" s="8">
         <v>44144.0</v>
       </c>
       <c r="D234" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E234" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="E234" s="7" t="s">
+      <c r="F234" s="11" t="s">
         <v>1081</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>1082</v>
       </c>
       <c r="G234" s="6">
         <v>1.0</v>
@@ -20150,19 +20157,19 @@
         <v>233.0</v>
       </c>
       <c r="B235" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C235" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="C235" s="14" t="s">
+      <c r="D235" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="E235" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="E235" s="7" t="s">
+      <c r="F235" s="11" t="s">
         <v>1086</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>1087</v>
       </c>
       <c r="G235" s="6">
         <v>1.0</v>
@@ -20188,19 +20195,19 @@
         <v>234.0</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C236" s="8">
         <v>44144.0</v>
       </c>
       <c r="D236" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E236" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="E236" s="7" t="s">
+      <c r="F236" s="11" t="s">
         <v>1090</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>1091</v>
       </c>
       <c r="G236" s="6">
         <v>1.0</v>
@@ -20226,19 +20233,19 @@
         <v>235.0</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C237" s="8">
         <v>44021.0</v>
       </c>
       <c r="D237" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E237" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="E237" s="7" t="s">
+      <c r="F237" s="11" t="s">
         <v>1094</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>1095</v>
       </c>
       <c r="G237" s="6">
         <v>1.0</v>
@@ -20264,19 +20271,19 @@
         <v>236.0</v>
       </c>
       <c r="B238" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="C238" s="14" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="E238" s="7" t="s">
+      <c r="F238" s="11" t="s">
         <v>1098</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>1099</v>
       </c>
       <c r="G238" s="6">
         <v>1.0</v>
@@ -20302,19 +20309,19 @@
         <v>237.0</v>
       </c>
       <c r="B239" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C239" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="C239" s="14" t="s">
+      <c r="D239" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="F239" s="11" t="s">
         <v>1103</v>
-      </c>
-      <c r="F239" s="11" t="s">
-        <v>1104</v>
       </c>
       <c r="G239" s="6">
         <v>1.0</v>
@@ -20340,19 +20347,19 @@
         <v>238.0</v>
       </c>
       <c r="B240" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C240" s="14" t="s">
         <v>1105</v>
       </c>
-      <c r="C240" s="14" t="s">
+      <c r="D240" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="E240" s="7" t="s">
+      <c r="F240" s="11" t="s">
         <v>1108</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>1109</v>
       </c>
       <c r="G240" s="6">
         <v>1.0</v>
@@ -20378,19 +20385,19 @@
         <v>239.0</v>
       </c>
       <c r="B241" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C241" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="D241" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="E241" s="7" t="s">
+      <c r="F241" s="11" t="s">
         <v>1113</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>1114</v>
       </c>
       <c r="G241" s="6">
         <v>1.0</v>
@@ -20416,19 +20423,19 @@
         <v>240.0</v>
       </c>
       <c r="B242" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C242" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="D242" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="E242" s="7" t="s">
+      <c r="F242" s="11" t="s">
         <v>1118</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>1119</v>
       </c>
       <c r="G242" s="6">
         <v>1.0</v>
@@ -20454,19 +20461,19 @@
         <v>241.0</v>
       </c>
       <c r="B243" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C243" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="C243" s="14" t="s">
+      <c r="D243" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="E243" s="7" t="s">
+      <c r="F243" s="11" t="s">
         <v>1123</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>1124</v>
       </c>
       <c r="G243" s="6">
         <v>1.0</v>
@@ -20492,19 +20499,19 @@
         <v>242.0</v>
       </c>
       <c r="B244" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C244" s="14" t="s">
         <v>1125</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="D244" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="E244" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="E244" s="7" t="s">
+      <c r="F244" s="11" t="s">
         <v>1128</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>1129</v>
       </c>
       <c r="G244" s="6">
         <v>1.0</v>
@@ -20530,19 +20537,19 @@
         <v>243.0</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C245" s="8">
         <v>44021.0</v>
       </c>
       <c r="D245" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E245" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="E245" s="7" t="s">
+      <c r="F245" s="11" t="s">
         <v>1132</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>1133</v>
       </c>
       <c r="G245" s="6">
         <v>1.0</v>
@@ -20568,19 +20575,19 @@
         <v>244.0</v>
       </c>
       <c r="B246" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C246" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="D246" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="D246" s="9" t="s">
+      <c r="E246" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="E246" s="7" t="s">
+      <c r="F246" s="11" t="s">
         <v>1137</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>1138</v>
       </c>
       <c r="G246" s="6">
         <v>1.0</v>
@@ -20606,19 +20613,19 @@
         <v>245.0</v>
       </c>
       <c r="B247" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C247" s="14" t="s">
         <v>1139</v>
       </c>
-      <c r="C247" s="14" t="s">
+      <c r="D247" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="E247" s="7" t="s">
+      <c r="F247" s="11" t="s">
         <v>1142</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>1143</v>
       </c>
       <c r="G247" s="6">
         <v>1.0</v>
@@ -20644,19 +20651,19 @@
         <v>246.0</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C248" s="8">
         <v>43839.0</v>
       </c>
       <c r="D248" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E248" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="F248" s="11" t="s">
         <v>1146</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>1147</v>
       </c>
       <c r="G248" s="6">
         <v>1.0</v>
@@ -20682,19 +20689,19 @@
         <v>247.0</v>
       </c>
       <c r="B249" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="C249" s="14" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="F249" s="11" t="s">
         <v>1150</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>1151</v>
       </c>
       <c r="G249" s="6">
         <v>1.0</v>
@@ -20720,19 +20727,19 @@
         <v>248.0</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C250" s="8">
         <v>43960.0</v>
       </c>
       <c r="D250" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E250" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="E250" s="7" t="s">
+      <c r="F250" s="11" t="s">
         <v>1154</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>1155</v>
       </c>
       <c r="G250" s="6">
         <v>1.0</v>
@@ -20758,19 +20765,19 @@
         <v>249.0</v>
       </c>
       <c r="B251" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>1156</v>
       </c>
-      <c r="C251" s="14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D251" s="9" t="s">
+      <c r="E251" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="E251" s="7" t="s">
+      <c r="F251" s="11" t="s">
         <v>1158</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>1159</v>
       </c>
       <c r="G251" s="6">
         <v>1.0</v>
@@ -20796,19 +20803,19 @@
         <v>250.0</v>
       </c>
       <c r="B252" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C252" s="14" t="s">
         <v>1160</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="D252" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="E252" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="E252" s="7" t="s">
+      <c r="F252" s="11" t="s">
         <v>1163</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>1164</v>
       </c>
       <c r="G252" s="6">
         <v>1.0</v>
@@ -20834,19 +20841,19 @@
         <v>251.0</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C253" s="8">
         <v>44143.0</v>
       </c>
       <c r="D253" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E253" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="E253" s="7" t="s">
+      <c r="F253" s="11" t="s">
         <v>1167</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>1168</v>
       </c>
       <c r="G253" s="6">
         <v>1.0</v>
@@ -20872,19 +20879,19 @@
         <v>252.0</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C254" s="8">
         <v>44112.0</v>
       </c>
       <c r="D254" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E254" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="E254" s="7" t="s">
+      <c r="F254" s="11" t="s">
         <v>1171</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>1172</v>
       </c>
       <c r="G254" s="6">
         <v>1.0</v>
@@ -20910,19 +20917,19 @@
         <v>253.0</v>
       </c>
       <c r="B255" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C255" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="C255" s="14" t="s">
+      <c r="D255" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="E255" s="7" t="s">
+      <c r="F255" s="11" t="s">
         <v>1176</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>1177</v>
       </c>
       <c r="G255" s="6">
         <v>1.0</v>
@@ -20948,19 +20955,19 @@
         <v>254.0</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C256" s="8">
         <v>43990.0</v>
       </c>
       <c r="D256" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E256" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="E256" s="7" t="s">
+      <c r="F256" s="11" t="s">
         <v>1180</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>1181</v>
       </c>
       <c r="G256" s="6">
         <v>1.0</v>
@@ -20986,19 +20993,19 @@
         <v>255.0</v>
       </c>
       <c r="B257" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C257" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="C257" s="14" t="s">
+      <c r="D257" s="9" t="s">
         <v>1183</v>
       </c>
-      <c r="D257" s="9" t="s">
+      <c r="E257" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="E257" s="7" t="s">
+      <c r="F257" s="11" t="s">
         <v>1185</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>1186</v>
       </c>
       <c r="G257" s="6">
         <v>1.0</v>
@@ -21024,19 +21031,19 @@
         <v>256.0</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C258" s="8">
         <v>44020.0</v>
       </c>
       <c r="D258" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E258" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="E258" s="7" t="s">
+      <c r="F258" s="11" t="s">
         <v>1189</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>1190</v>
       </c>
       <c r="G258" s="6">
         <v>1.0</v>
@@ -21062,19 +21069,19 @@
         <v>257.0</v>
       </c>
       <c r="B259" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D259" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="C259" s="14" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D259" s="9" t="s">
+      <c r="E259" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="E259" s="7" t="s">
+      <c r="F259" s="11" t="s">
         <v>1193</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>1194</v>
       </c>
       <c r="G259" s="6">
         <v>1.0</v>
@@ -21100,19 +21107,19 @@
         <v>258.0</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C260" s="8">
         <v>43959.0</v>
       </c>
       <c r="D260" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E260" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="E260" s="7" t="s">
+      <c r="F260" s="11" t="s">
         <v>1197</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>1198</v>
       </c>
       <c r="G260" s="6">
         <v>1.0</v>
@@ -21138,19 +21145,19 @@
         <v>259.0</v>
       </c>
       <c r="B261" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C261" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="D261" s="9" t="s">
         <v>1200</v>
       </c>
-      <c r="D261" s="9" t="s">
+      <c r="E261" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="E261" s="7" t="s">
+      <c r="F261" s="11" t="s">
         <v>1202</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>1203</v>
       </c>
       <c r="G261" s="6">
         <v>1.0</v>
@@ -21176,19 +21183,19 @@
         <v>260.0</v>
       </c>
       <c r="B262" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C262" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="D262" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="E262" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="E262" s="7" t="s">
+      <c r="F262" s="11" t="s">
         <v>1207</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>1208</v>
       </c>
       <c r="G262" s="6">
         <v>1.0</v>
@@ -21214,19 +21221,19 @@
         <v>261.0</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C263" s="8">
         <v>43898.0</v>
       </c>
       <c r="D263" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E263" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="E263" s="7" t="s">
+      <c r="F263" s="11" t="s">
         <v>1211</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>1212</v>
       </c>
       <c r="G263" s="6">
         <v>1.0</v>
@@ -21252,19 +21259,19 @@
         <v>262.0</v>
       </c>
       <c r="B264" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C264" s="14" t="s">
         <v>1213</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="D264" s="9" t="s">
         <v>1214</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="E264" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="E264" s="7" t="s">
+      <c r="F264" s="11" t="s">
         <v>1216</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>1217</v>
       </c>
       <c r="G264" s="6">
         <v>1.0</v>
@@ -21290,19 +21297,19 @@
         <v>263.0</v>
       </c>
       <c r="B265" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D265" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="C265" s="14" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D265" s="9" t="s">
+      <c r="E265" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="E265" s="7" t="s">
+      <c r="F265" s="11" t="s">
         <v>1220</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>1221</v>
       </c>
       <c r="G265" s="6">
         <v>1.0</v>
@@ -21328,19 +21335,19 @@
         <v>264.0</v>
       </c>
       <c r="B266" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C266" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="D266" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="D266" s="9" t="s">
+      <c r="E266" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="E266" s="7" t="s">
+      <c r="F266" s="11" t="s">
         <v>1225</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>1226</v>
       </c>
       <c r="G266" s="6">
         <v>1.0</v>
@@ -21366,19 +21373,19 @@
         <v>265.0</v>
       </c>
       <c r="B267" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C267" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="D267" s="9" t="s">
         <v>1228</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="E267" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="E267" s="7" t="s">
+      <c r="F267" s="11" t="s">
         <v>1230</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>1231</v>
       </c>
       <c r="G267" s="6">
         <v>1.0</v>
@@ -21404,19 +21411,19 @@
         <v>266.0</v>
       </c>
       <c r="B268" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C268" s="14" t="s">
         <v>1232</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="D268" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="D268" s="9" t="s">
+      <c r="E268" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="E268" s="7" t="s">
+      <c r="F268" s="11" t="s">
         <v>1235</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>1236</v>
       </c>
       <c r="G268" s="6">
         <v>1.0</v>
@@ -21442,19 +21449,19 @@
         <v>267.0</v>
       </c>
       <c r="B269" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C269" s="14" t="s">
         <v>1237</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="D269" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="E269" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="E269" s="7" t="s">
+      <c r="F269" s="11" t="s">
         <v>1240</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>1241</v>
       </c>
       <c r="G269" s="6">
         <v>1.0</v>
@@ -21480,19 +21487,19 @@
         <v>268.0</v>
       </c>
       <c r="B270" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C270" s="14" t="s">
         <v>1242</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="D270" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="E270" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="F270" s="11" t="s">
         <v>1245</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>1246</v>
       </c>
       <c r="G270" s="6">
         <v>1.0</v>
@@ -21518,19 +21525,19 @@
         <v>269.0</v>
       </c>
       <c r="B271" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C271" s="14" t="s">
         <v>1247</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="D271" s="9" t="s">
         <v>1248</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="E271" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="E271" s="7" t="s">
+      <c r="F271" s="11" t="s">
         <v>1250</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>1251</v>
       </c>
       <c r="G271" s="6">
         <v>1.0</v>
@@ -21556,19 +21563,19 @@
         <v>270.0</v>
       </c>
       <c r="B272" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C272" s="14" t="s">
         <v>1252</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="D272" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="E272" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="E272" s="7" t="s">
+      <c r="F272" s="11" t="s">
         <v>1255</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>1256</v>
       </c>
       <c r="G272" s="6">
         <v>1.0</v>
@@ -21594,19 +21601,19 @@
         <v>271.0</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C273" s="8">
         <v>44081.0</v>
       </c>
       <c r="D273" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E273" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="E273" s="7" t="s">
+      <c r="F273" s="11" t="s">
         <v>1259</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>1260</v>
       </c>
       <c r="G273" s="6">
         <v>1.0</v>
@@ -21632,19 +21639,19 @@
         <v>272.0</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C274" s="8">
         <v>43837.0</v>
       </c>
       <c r="D274" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E274" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="E274" s="7" t="s">
+      <c r="F274" s="11" t="s">
         <v>1263</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>1264</v>
       </c>
       <c r="G274" s="6">
         <v>1.0</v>
@@ -21670,19 +21677,19 @@
         <v>273.0</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C275" s="8">
         <v>44050.0</v>
       </c>
       <c r="D275" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E275" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="E275" s="7" t="s">
+      <c r="F275" s="11" t="s">
         <v>1267</v>
-      </c>
-      <c r="F275" s="11" t="s">
-        <v>1268</v>
       </c>
       <c r="G275" s="6">
         <v>1.0</v>
@@ -21708,19 +21715,19 @@
         <v>274.0</v>
       </c>
       <c r="B276" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C276" s="14" t="s">
         <v>1269</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="D276" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="D276" s="9" t="s">
+      <c r="E276" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="E276" s="7" t="s">
+      <c r="F276" s="11" t="s">
         <v>1272</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>1273</v>
       </c>
       <c r="G276" s="6">
         <v>1.0</v>
@@ -21746,19 +21753,19 @@
         <v>275.0</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C277" s="8">
         <v>44019.0</v>
       </c>
       <c r="D277" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E277" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="E277" s="7" t="s">
+      <c r="F277" s="11" t="s">
         <v>1276</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>1277</v>
       </c>
       <c r="G277" s="6">
         <v>1.0</v>
@@ -21784,19 +21791,19 @@
         <v>276.0</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C278" s="8">
         <v>44019.0</v>
       </c>
       <c r="D278" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E278" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="E278" s="7" t="s">
+      <c r="F278" s="11" t="s">
         <v>1280</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>1281</v>
       </c>
       <c r="G278" s="6">
         <v>1.0</v>
@@ -21822,19 +21829,19 @@
         <v>277.0</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C279" s="8">
         <v>43868.0</v>
       </c>
       <c r="D279" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E279" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="E279" s="7" t="s">
+      <c r="F279" s="11" t="s">
         <v>1284</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>1285</v>
       </c>
       <c r="G279" s="6">
         <v>1.0</v>
@@ -21860,19 +21867,19 @@
         <v>278.0</v>
       </c>
       <c r="B280" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C280" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="C280" s="14" t="s">
+      <c r="D280" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="E280" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E280" s="7" t="s">
+      <c r="F280" s="11" t="s">
         <v>1289</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>1290</v>
       </c>
       <c r="G280" s="6">
         <v>1.0</v>
@@ -21898,19 +21905,19 @@
         <v>279.0</v>
       </c>
       <c r="B281" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C281" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="C281" s="14" t="s">
+      <c r="D281" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="E281" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="E281" s="7" t="s">
+      <c r="F281" s="11" t="s">
         <v>1294</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>1295</v>
       </c>
       <c r="G281" s="6">
         <v>1.0</v>
@@ -21936,19 +21943,19 @@
         <v>280.0</v>
       </c>
       <c r="B282" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C282" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="D282" s="9" t="s">
         <v>1297</v>
       </c>
-      <c r="D282" s="9" t="s">
+      <c r="E282" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="E282" s="7" t="s">
+      <c r="F282" s="11" t="s">
         <v>1299</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>1300</v>
       </c>
       <c r="G282" s="6">
         <v>1.0</v>
@@ -21974,19 +21981,19 @@
         <v>281.0</v>
       </c>
       <c r="B283" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C283" s="14" t="s">
         <v>1301</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="D283" s="9" t="s">
         <v>1302</v>
       </c>
-      <c r="D283" s="9" t="s">
+      <c r="E283" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="E283" s="7" t="s">
+      <c r="F283" s="11" t="s">
         <v>1304</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>1305</v>
       </c>
       <c r="G283" s="6">
         <v>1.0</v>
@@ -22012,19 +22019,19 @@
         <v>282.0</v>
       </c>
       <c r="B284" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C284" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="D284" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="E284" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="E284" s="7" t="s">
+      <c r="F284" s="11" t="s">
         <v>1309</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>1310</v>
       </c>
       <c r="G284" s="6">
         <v>1.0</v>
@@ -22050,19 +22057,19 @@
         <v>283.0</v>
       </c>
       <c r="B285" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C285" s="14" t="s">
         <v>1311</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="D285" s="9" t="s">
         <v>1312</v>
       </c>
-      <c r="D285" s="9" t="s">
+      <c r="E285" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="E285" s="7" t="s">
+      <c r="F285" s="11" t="s">
         <v>1314</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>1315</v>
       </c>
       <c r="G285" s="6">
         <v>1.0</v>
@@ -22088,19 +22095,19 @@
         <v>284.0</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C286" s="8">
         <v>44171.0</v>
       </c>
       <c r="D286" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E286" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="E286" s="7" t="s">
+      <c r="F286" s="11" t="s">
         <v>1318</v>
-      </c>
-      <c r="F286" s="11" t="s">
-        <v>1319</v>
       </c>
       <c r="G286" s="6">
         <v>1.0</v>
@@ -22126,19 +22133,19 @@
         <v>285.0</v>
       </c>
       <c r="B287" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D287" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="C287" s="14" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D287" s="9" t="s">
+      <c r="E287" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="E287" s="7" t="s">
+      <c r="F287" s="11" t="s">
         <v>1322</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>1323</v>
       </c>
       <c r="G287" s="6">
         <v>1.0</v>
@@ -22164,19 +22171,19 @@
         <v>286.0</v>
       </c>
       <c r="B288" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C288" s="14" t="s">
         <v>1324</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="D288" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="E288" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="E288" s="7" t="s">
+      <c r="F288" s="11" t="s">
         <v>1327</v>
-      </c>
-      <c r="F288" s="11" t="s">
-        <v>1328</v>
       </c>
       <c r="G288" s="6">
         <v>1.0</v>
@@ -22202,19 +22209,19 @@
         <v>287.0</v>
       </c>
       <c r="B289" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D289" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="C289" s="14" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D289" s="9" t="s">
+      <c r="E289" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="E289" s="7" t="s">
+      <c r="F289" s="11" t="s">
         <v>1331</v>
-      </c>
-      <c r="F289" s="11" t="s">
-        <v>1332</v>
       </c>
       <c r="G289" s="6">
         <v>1.0</v>
@@ -22240,19 +22247,19 @@
         <v>288.0</v>
       </c>
       <c r="B290" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C290" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="C290" s="14" t="s">
+      <c r="D290" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="E290" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="E290" s="7" t="s">
+      <c r="F290" s="11" t="s">
         <v>1336</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>1337</v>
       </c>
       <c r="G290" s="6">
         <v>1.0</v>
@@ -22278,19 +22285,19 @@
         <v>289.0</v>
       </c>
       <c r="B291" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C291" s="14" t="s">
         <v>1338</v>
       </c>
-      <c r="C291" s="14" t="s">
+      <c r="D291" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="D291" s="9" t="s">
+      <c r="E291" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="E291" s="7" t="s">
+      <c r="F291" s="11" t="s">
         <v>1341</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>1342</v>
       </c>
       <c r="G291" s="6">
         <v>1.0</v>
@@ -22316,19 +22323,19 @@
         <v>290.0</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C292" s="8">
         <v>44049.0</v>
       </c>
       <c r="D292" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E292" s="7" t="s">
         <v>1344</v>
       </c>
-      <c r="E292" s="7" t="s">
+      <c r="F292" s="11" t="s">
         <v>1345</v>
-      </c>
-      <c r="F292" s="11" t="s">
-        <v>1346</v>
       </c>
       <c r="G292" s="6">
         <v>1.0</v>
@@ -22354,19 +22361,19 @@
         <v>291.0</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C293" s="8">
         <v>44080.0</v>
       </c>
       <c r="D293" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E293" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="E293" s="7" t="s">
+      <c r="F293" s="11" t="s">
         <v>1349</v>
-      </c>
-      <c r="F293" s="11" t="s">
-        <v>1350</v>
       </c>
       <c r="G293" s="6">
         <v>1.0</v>
@@ -22392,19 +22399,19 @@
         <v>292.0</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C294" s="8">
         <v>44110.0</v>
       </c>
       <c r="D294" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E294" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="E294" s="7" t="s">
+      <c r="F294" s="11" t="s">
         <v>1353</v>
-      </c>
-      <c r="F294" s="11" t="s">
-        <v>1354</v>
       </c>
       <c r="G294" s="6">
         <v>1.0</v>
@@ -22430,19 +22437,19 @@
         <v>293.0</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C295" s="8">
         <v>43927.0</v>
       </c>
       <c r="D295" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E295" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="E295" s="7" t="s">
+      <c r="F295" s="11" t="s">
         <v>1357</v>
-      </c>
-      <c r="F295" s="11" t="s">
-        <v>1358</v>
       </c>
       <c r="G295" s="6">
         <v>1.0</v>
@@ -22468,19 +22475,19 @@
         <v>294.0</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C296" s="8">
         <v>43867.0</v>
       </c>
       <c r="D296" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E296" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="E296" s="7" t="s">
+      <c r="F296" s="11" t="s">
         <v>1361</v>
-      </c>
-      <c r="F296" s="11" t="s">
-        <v>1362</v>
       </c>
       <c r="G296" s="6">
         <v>1.0</v>
@@ -22506,19 +22513,19 @@
         <v>295.0</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C297" s="8">
         <v>44110.0</v>
       </c>
       <c r="D297" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E297" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="E297" s="7" t="s">
+      <c r="F297" s="11" t="s">
         <v>1365</v>
-      </c>
-      <c r="F297" s="11" t="s">
-        <v>1366</v>
       </c>
       <c r="G297" s="6">
         <v>1.0</v>
@@ -22544,19 +22551,19 @@
         <v>296.0</v>
       </c>
       <c r="B298" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C298" s="14" t="s">
         <v>1367</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="D298" s="9" t="s">
         <v>1368</v>
       </c>
-      <c r="D298" s="9" t="s">
+      <c r="E298" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="E298" s="7" t="s">
+      <c r="F298" s="11" t="s">
         <v>1370</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>1371</v>
       </c>
       <c r="G298" s="6">
         <v>1.0</v>
@@ -22582,19 +22589,19 @@
         <v>297.0</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C299" s="8">
         <v>44080.0</v>
       </c>
       <c r="D299" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E299" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="E299" s="7" t="s">
+      <c r="F299" s="11" t="s">
         <v>1374</v>
-      </c>
-      <c r="F299" s="11" t="s">
-        <v>1375</v>
       </c>
       <c r="G299" s="6">
         <v>1.0</v>
@@ -22620,19 +22627,19 @@
         <v>298.0</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C300" s="8">
         <v>43836.0</v>
       </c>
       <c r="D300" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E300" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="E300" s="7" t="s">
+      <c r="F300" s="11" t="s">
         <v>1378</v>
-      </c>
-      <c r="F300" s="11" t="s">
-        <v>1379</v>
       </c>
       <c r="G300" s="6">
         <v>1.0</v>
@@ -22658,19 +22665,19 @@
         <v>299.0</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C301" s="8">
         <v>43896.0</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E301" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F301" s="11" t="s">
         <v>1380</v>
-      </c>
-      <c r="F301" s="11" t="s">
-        <v>1381</v>
       </c>
       <c r="G301" s="6">
         <v>1.0</v>
@@ -22696,19 +22703,19 @@
         <v>300.0</v>
       </c>
       <c r="B302" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C302" s="14" t="s">
         <v>1382</v>
       </c>
-      <c r="C302" s="14" t="s">
+      <c r="D302" s="9" t="s">
         <v>1383</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="E302" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="E302" s="7" t="s">
+      <c r="F302" s="11" t="s">
         <v>1385</v>
-      </c>
-      <c r="F302" s="11" t="s">
-        <v>1386</v>
       </c>
       <c r="G302" s="6">
         <v>1.0</v>
@@ -22734,19 +22741,19 @@
         <v>301.0</v>
       </c>
       <c r="B303" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C303" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="D303" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="E303" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="E303" s="7" t="s">
+      <c r="F303" s="11" t="s">
         <v>1390</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>1391</v>
       </c>
       <c r="G303" s="6">
         <v>1.0</v>
@@ -22772,19 +22779,19 @@
         <v>302.0</v>
       </c>
       <c r="B304" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C304" s="14" t="s">
         <v>1392</v>
       </c>
-      <c r="C304" s="14" t="s">
+      <c r="D304" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="D304" s="9" t="s">
+      <c r="E304" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="E304" s="7" t="s">
+      <c r="F304" s="11" t="s">
         <v>1395</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>1396</v>
       </c>
       <c r="G304" s="6">
         <v>1.0</v>
@@ -22810,19 +22817,19 @@
         <v>303.0</v>
       </c>
       <c r="B305" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D305" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="C305" s="14" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D305" s="9" t="s">
+      <c r="E305" s="7" t="s">
         <v>1398</v>
       </c>
-      <c r="E305" s="7" t="s">
+      <c r="F305" s="11" t="s">
         <v>1399</v>
-      </c>
-      <c r="F305" s="11" t="s">
-        <v>1400</v>
       </c>
       <c r="G305" s="6">
         <v>1.0</v>
@@ -22848,19 +22855,19 @@
         <v>304.0</v>
       </c>
       <c r="B306" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C306" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="C306" s="14" t="s">
+      <c r="D306" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="D306" s="9" t="s">
+      <c r="E306" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="E306" s="7" t="s">
+      <c r="F306" s="11" t="s">
         <v>1404</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>1405</v>
       </c>
       <c r="G306" s="6">
         <v>1.0</v>
@@ -22886,19 +22893,19 @@
         <v>305.0</v>
       </c>
       <c r="B307" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C307" s="14" t="s">
         <v>1406</v>
       </c>
-      <c r="C307" s="14" t="s">
+      <c r="D307" s="9" t="s">
         <v>1407</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="E307" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="E307" s="7" t="s">
+      <c r="F307" s="11" t="s">
         <v>1409</v>
-      </c>
-      <c r="F307" s="11" t="s">
-        <v>1410</v>
       </c>
       <c r="G307" s="6">
         <v>1.0</v>
@@ -22924,19 +22931,19 @@
         <v>306.0</v>
       </c>
       <c r="B308" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C308" s="14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D308" s="9" t="s">
         <v>1411</v>
       </c>
-      <c r="C308" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D308" s="9" t="s">
+      <c r="E308" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="E308" s="7" t="s">
+      <c r="F308" s="11" t="s">
         <v>1413</v>
-      </c>
-      <c r="F308" s="11" t="s">
-        <v>1414</v>
       </c>
       <c r="G308" s="6">
         <v>1.0</v>
@@ -22962,19 +22969,19 @@
         <v>307.0</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C309" s="8">
         <v>44170.0</v>
       </c>
       <c r="D309" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E309" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="E309" s="7" t="s">
+      <c r="F309" s="11" t="s">
         <v>1417</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>1418</v>
       </c>
       <c r="G309" s="6">
         <v>1.0</v>
@@ -23000,19 +23007,19 @@
         <v>308.0</v>
       </c>
       <c r="B310" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C310" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="D310" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="D310" s="9" t="s">
+      <c r="E310" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E310" s="7" t="s">
+      <c r="F310" s="11" t="s">
         <v>1422</v>
-      </c>
-      <c r="F310" s="11" t="s">
-        <v>1423</v>
       </c>
       <c r="G310" s="6">
         <v>1.0</v>
@@ -23038,19 +23045,19 @@
         <v>309.0</v>
       </c>
       <c r="B311" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C311" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D311" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="C311" s="14" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D311" s="9" t="s">
+      <c r="E311" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="E311" s="7" t="s">
+      <c r="F311" s="11" t="s">
         <v>1426</v>
-      </c>
-      <c r="F311" s="11" t="s">
-        <v>1427</v>
       </c>
       <c r="G311" s="6">
         <v>1.0</v>
@@ -23076,19 +23083,19 @@
         <v>310.0</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C312" s="8">
         <v>43926.0</v>
       </c>
       <c r="D312" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E312" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="E312" s="7" t="s">
+      <c r="F312" s="11" t="s">
         <v>1430</v>
-      </c>
-      <c r="F312" s="11" t="s">
-        <v>1431</v>
       </c>
       <c r="G312" s="6">
         <v>1.0</v>
@@ -23114,19 +23121,19 @@
         <v>311.0</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C313" s="8">
         <v>44048.0</v>
       </c>
       <c r="D313" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E313" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="E313" s="7" t="s">
+      <c r="F313" s="11" t="s">
         <v>1434</v>
-      </c>
-      <c r="F313" s="11" t="s">
-        <v>1435</v>
       </c>
       <c r="G313" s="6">
         <v>1.0</v>
@@ -23152,19 +23159,19 @@
         <v>312.0</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C314" s="8">
         <v>43956.0</v>
       </c>
       <c r="D314" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E314" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="E314" s="7" t="s">
+      <c r="F314" s="11" t="s">
         <v>1438</v>
-      </c>
-      <c r="F314" s="11" t="s">
-        <v>1439</v>
       </c>
       <c r="G314" s="6">
         <v>1.0</v>
@@ -23190,19 +23197,19 @@
         <v>313.0</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C315" s="8">
         <v>44017.0</v>
       </c>
       <c r="D315" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E315" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="E315" s="7" t="s">
+      <c r="F315" s="11" t="s">
         <v>1442</v>
-      </c>
-      <c r="F315" s="11" t="s">
-        <v>1443</v>
       </c>
       <c r="G315" s="6">
         <v>1.0</v>
@@ -23228,19 +23235,19 @@
         <v>314.0</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C316" s="8">
         <v>43926.0</v>
       </c>
       <c r="D316" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E316" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="E316" s="7" t="s">
+      <c r="F316" s="11" t="s">
         <v>1446</v>
-      </c>
-      <c r="F316" s="11" t="s">
-        <v>1447</v>
       </c>
       <c r="G316" s="6">
         <v>1.0</v>
@@ -23266,19 +23273,19 @@
         <v>315.0</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C317" s="8">
         <v>43866.0</v>
       </c>
       <c r="D317" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E317" s="7" t="s">
         <v>1449</v>
       </c>
-      <c r="E317" s="7" t="s">
+      <c r="F317" s="11" t="s">
         <v>1450</v>
-      </c>
-      <c r="F317" s="11" t="s">
-        <v>1451</v>
       </c>
       <c r="G317" s="6">
         <v>1.0</v>
@@ -23304,19 +23311,19 @@
         <v>316.0</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C318" s="8">
         <v>44140.0</v>
       </c>
       <c r="D318" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E318" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="E318" s="7" t="s">
+      <c r="F318" s="11" t="s">
         <v>1454</v>
-      </c>
-      <c r="F318" s="11" t="s">
-        <v>1455</v>
       </c>
       <c r="G318" s="6">
         <v>1.0</v>
@@ -23342,19 +23349,19 @@
         <v>317.0</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C319" s="8">
         <v>43835.0</v>
       </c>
       <c r="D319" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E319" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="E319" s="7" t="s">
+      <c r="F319" s="11" t="s">
         <v>1458</v>
-      </c>
-      <c r="F319" s="11" t="s">
-        <v>1459</v>
       </c>
       <c r="G319" s="6">
         <v>1.0</v>
@@ -23380,19 +23387,19 @@
         <v>318.0</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C320" s="8">
         <v>43987.0</v>
       </c>
       <c r="D320" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E320" s="7" t="s">
         <v>1461</v>
       </c>
-      <c r="E320" s="7" t="s">
+      <c r="F320" s="11" t="s">
         <v>1462</v>
-      </c>
-      <c r="F320" s="11" t="s">
-        <v>1463</v>
       </c>
       <c r="G320" s="6">
         <v>1.0</v>
@@ -23418,19 +23425,19 @@
         <v>319.0</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C321" s="8">
         <v>43987.0</v>
       </c>
       <c r="D321" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E321" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="E321" s="7" t="s">
+      <c r="F321" s="11" t="s">
         <v>1466</v>
-      </c>
-      <c r="F321" s="11" t="s">
-        <v>1467</v>
       </c>
       <c r="G321" s="6">
         <v>1.0</v>
@@ -23456,19 +23463,19 @@
         <v>320.0</v>
       </c>
       <c r="B322" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C322" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="C322" s="14" t="s">
+      <c r="D322" s="9" t="s">
         <v>1469</v>
       </c>
-      <c r="D322" s="9" t="s">
+      <c r="E322" s="7" t="s">
         <v>1470</v>
       </c>
-      <c r="E322" s="7" t="s">
+      <c r="F322" s="11" t="s">
         <v>1471</v>
-      </c>
-      <c r="F322" s="11" t="s">
-        <v>1472</v>
       </c>
       <c r="G322" s="6">
         <v>1.0</v>
@@ -23494,19 +23501,19 @@
         <v>321.0</v>
       </c>
       <c r="B323" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="C323" s="14" t="s">
+      <c r="D323" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="D323" s="9" t="s">
+      <c r="E323" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="E323" s="7" t="s">
+      <c r="F323" s="11" t="s">
         <v>1476</v>
-      </c>
-      <c r="F323" s="11" t="s">
-        <v>1477</v>
       </c>
       <c r="G323" s="6">
         <v>1.0</v>
@@ -23532,19 +23539,19 @@
         <v>322.0</v>
       </c>
       <c r="B324" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>1478</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="D324" s="9" t="s">
+      <c r="E324" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="E324" s="7" t="s">
+      <c r="F324" s="11" t="s">
         <v>1481</v>
-      </c>
-      <c r="F324" s="11" t="s">
-        <v>1482</v>
       </c>
       <c r="G324" s="6">
         <v>1.0</v>
@@ -23570,19 +23577,19 @@
         <v>323.0</v>
       </c>
       <c r="B325" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="D325" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="E325" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="E325" s="7" t="s">
+      <c r="F325" s="11" t="s">
         <v>1486</v>
-      </c>
-      <c r="F325" s="11" t="s">
-        <v>1487</v>
       </c>
       <c r="G325" s="6">
         <v>1.0</v>
@@ -23608,19 +23615,19 @@
         <v>324.0</v>
       </c>
       <c r="B326" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C326" s="14" t="s">
         <v>1488</v>
       </c>
-      <c r="C326" s="14" t="s">
+      <c r="D326" s="9" t="s">
         <v>1489</v>
       </c>
-      <c r="D326" s="9" t="s">
+      <c r="E326" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="E326" s="7" t="s">
+      <c r="F326" s="11" t="s">
         <v>1491</v>
-      </c>
-      <c r="F326" s="11" t="s">
-        <v>1492</v>
       </c>
       <c r="G326" s="6">
         <v>1.0</v>
@@ -23646,19 +23653,19 @@
         <v>325.0</v>
       </c>
       <c r="B327" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C327" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="D327" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="D327" s="9" t="s">
+      <c r="E327" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="E327" s="7" t="s">
+      <c r="F327" s="11" t="s">
         <v>1496</v>
-      </c>
-      <c r="F327" s="11" t="s">
-        <v>1497</v>
       </c>
       <c r="G327" s="6">
         <v>1.0</v>
@@ -23684,19 +23691,19 @@
         <v>326.0</v>
       </c>
       <c r="B328" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C328" s="14" t="s">
         <v>1498</v>
       </c>
-      <c r="C328" s="14" t="s">
+      <c r="D328" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="D328" s="9" t="s">
+      <c r="E328" s="7" t="s">
         <v>1500</v>
       </c>
-      <c r="E328" s="7" t="s">
+      <c r="F328" s="11" t="s">
         <v>1501</v>
-      </c>
-      <c r="F328" s="11" t="s">
-        <v>1502</v>
       </c>
       <c r="G328" s="6">
         <v>1.0</v>
@@ -23722,19 +23729,19 @@
         <v>327.0</v>
       </c>
       <c r="B329" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D329" s="9" t="s">
         <v>1503</v>
       </c>
-      <c r="C329" s="14" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D329" s="9" t="s">
+      <c r="E329" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="E329" s="7" t="s">
+      <c r="F329" s="11" t="s">
         <v>1505</v>
-      </c>
-      <c r="F329" s="11" t="s">
-        <v>1506</v>
       </c>
       <c r="G329" s="6">
         <v>1.0</v>
@@ -23760,19 +23767,19 @@
         <v>328.0</v>
       </c>
       <c r="B330" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C330" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D330" s="9" t="s">
         <v>1507</v>
       </c>
-      <c r="C330" s="14" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D330" s="9" t="s">
+      <c r="E330" s="7" t="s">
         <v>1508</v>
       </c>
-      <c r="E330" s="7" t="s">
+      <c r="F330" s="11" t="s">
         <v>1509</v>
-      </c>
-      <c r="F330" s="11" t="s">
-        <v>1510</v>
       </c>
       <c r="G330" s="6">
         <v>1.0</v>
@@ -23798,19 +23805,19 @@
         <v>329.0</v>
       </c>
       <c r="B331" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C331" s="14" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D331" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="C331" s="14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D331" s="9" t="s">
+      <c r="E331" s="7" t="s">
         <v>1512</v>
       </c>
-      <c r="E331" s="7" t="s">
+      <c r="F331" s="11" t="s">
         <v>1513</v>
-      </c>
-      <c r="F331" s="11" t="s">
-        <v>1514</v>
       </c>
       <c r="G331" s="6">
         <v>1.0</v>
@@ -23836,19 +23843,19 @@
         <v>330.0</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C332" s="8">
         <v>44108.0</v>
       </c>
       <c r="D332" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E332" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="E332" s="7" t="s">
+      <c r="F332" s="11" t="s">
         <v>1517</v>
-      </c>
-      <c r="F332" s="11" t="s">
-        <v>1518</v>
       </c>
       <c r="G332" s="6">
         <v>1.0</v>
@@ -23874,19 +23881,19 @@
         <v>331.0</v>
       </c>
       <c r="B333" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C333" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="C333" s="14" t="s">
+      <c r="D333" s="9" t="s">
         <v>1520</v>
       </c>
-      <c r="D333" s="9" t="s">
+      <c r="E333" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="E333" s="7" t="s">
+      <c r="F333" s="11" t="s">
         <v>1522</v>
-      </c>
-      <c r="F333" s="11" t="s">
-        <v>1523</v>
       </c>
       <c r="G333" s="6">
         <v>1.0</v>
@@ -23912,19 +23919,19 @@
         <v>332.0</v>
       </c>
       <c r="B334" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C334" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="C334" s="14" t="s">
+      <c r="D334" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="D334" s="9" t="s">
+      <c r="E334" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="E334" s="7" t="s">
+      <c r="F334" s="11" t="s">
         <v>1527</v>
-      </c>
-      <c r="F334" s="11" t="s">
-        <v>1528</v>
       </c>
       <c r="G334" s="6">
         <v>1.0</v>
@@ -23950,19 +23957,19 @@
         <v>333.0</v>
       </c>
       <c r="B335" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C335" s="14" t="s">
         <v>1529</v>
       </c>
-      <c r="C335" s="14" t="s">
+      <c r="D335" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="D335" s="9" t="s">
+      <c r="E335" s="7" t="s">
         <v>1531</v>
       </c>
-      <c r="E335" s="7" t="s">
+      <c r="F335" s="11" t="s">
         <v>1532</v>
-      </c>
-      <c r="F335" s="11" t="s">
-        <v>1533</v>
       </c>
       <c r="G335" s="6">
         <v>1.0</v>
@@ -23988,19 +23995,19 @@
         <v>334.0</v>
       </c>
       <c r="B336" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D336" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="C336" s="14" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D336" s="9" t="s">
+      <c r="E336" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="E336" s="7" t="s">
+      <c r="F336" s="11" t="s">
         <v>1536</v>
-      </c>
-      <c r="F336" s="11" t="s">
-        <v>1537</v>
       </c>
       <c r="G336" s="6">
         <v>1.0</v>
@@ -24026,19 +24033,19 @@
         <v>335.0</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C337" s="8">
         <v>44169.0</v>
       </c>
       <c r="D337" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E337" s="7" t="s">
         <v>1539</v>
       </c>
-      <c r="E337" s="7" t="s">
+      <c r="F337" s="11" t="s">
         <v>1540</v>
-      </c>
-      <c r="F337" s="11" t="s">
-        <v>1541</v>
       </c>
       <c r="G337" s="6">
         <v>1.0</v>
@@ -24064,19 +24071,19 @@
         <v>336.0</v>
       </c>
       <c r="B338" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C338" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D338" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="C338" s="14" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D338" s="9" t="s">
+      <c r="E338" s="7" t="s">
         <v>1543</v>
       </c>
-      <c r="E338" s="7" t="s">
+      <c r="F338" s="11" t="s">
         <v>1544</v>
-      </c>
-      <c r="F338" s="11" t="s">
-        <v>1545</v>
       </c>
       <c r="G338" s="6">
         <v>1.0</v>
@@ -24102,19 +24109,19 @@
         <v>337.0</v>
       </c>
       <c r="B339" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C339" s="14" t="s">
         <v>1546</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="D339" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="D339" s="9" t="s">
+      <c r="E339" s="7" t="s">
         <v>1548</v>
       </c>
-      <c r="E339" s="7" t="s">
+      <c r="F339" s="11" t="s">
         <v>1549</v>
-      </c>
-      <c r="F339" s="11" t="s">
-        <v>1550</v>
       </c>
       <c r="G339" s="6">
         <v>1.0</v>
@@ -24140,19 +24147,19 @@
         <v>338.0</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C340" s="8">
         <v>44108.0</v>
       </c>
       <c r="D340" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E340" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="E340" s="7" t="s">
+      <c r="F340" s="11" t="s">
         <v>1553</v>
-      </c>
-      <c r="F340" s="11" t="s">
-        <v>1554</v>
       </c>
       <c r="G340" s="6">
         <v>1.0</v>
@@ -24178,19 +24185,19 @@
         <v>339.0</v>
       </c>
       <c r="B341" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D341" s="9" t="s">
         <v>1555</v>
       </c>
-      <c r="C341" s="14" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D341" s="9" t="s">
+      <c r="E341" s="7" t="s">
         <v>1556</v>
       </c>
-      <c r="E341" s="7" t="s">
+      <c r="F341" s="11" t="s">
         <v>1557</v>
-      </c>
-      <c r="F341" s="11" t="s">
-        <v>1558</v>
       </c>
       <c r="G341" s="6">
         <v>1.0</v>
@@ -24216,19 +24223,19 @@
         <v>340.0</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C342" s="8">
         <v>44047.0</v>
       </c>
       <c r="D342" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E342" s="7" t="s">
         <v>1560</v>
       </c>
-      <c r="E342" s="7" t="s">
+      <c r="F342" s="11" t="s">
         <v>1561</v>
-      </c>
-      <c r="F342" s="11" t="s">
-        <v>1562</v>
       </c>
       <c r="G342" s="6">
         <v>1.0</v>
@@ -24254,19 +24261,19 @@
         <v>341.0</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C343" s="8">
         <v>44078.0</v>
       </c>
       <c r="D343" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E343" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="E343" s="7" t="s">
+      <c r="F343" s="11" t="s">
         <v>1565</v>
-      </c>
-      <c r="F343" s="11" t="s">
-        <v>1566</v>
       </c>
       <c r="G343" s="6">
         <v>1.0</v>
@@ -24292,19 +24299,19 @@
         <v>342.0</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C344" s="8">
         <v>44016.0</v>
       </c>
       <c r="D344" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E344" s="7" t="s">
         <v>1568</v>
       </c>
-      <c r="E344" s="7" t="s">
+      <c r="F344" s="11" t="s">
         <v>1569</v>
-      </c>
-      <c r="F344" s="11" t="s">
-        <v>1570</v>
       </c>
       <c r="G344" s="6">
         <v>1.0</v>
@@ -24330,19 +24337,19 @@
         <v>343.0</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C345" s="8">
         <v>43986.0</v>
       </c>
       <c r="D345" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E345" s="7" t="s">
         <v>1572</v>
       </c>
-      <c r="E345" s="7" t="s">
+      <c r="F345" s="11" t="s">
         <v>1573</v>
-      </c>
-      <c r="F345" s="11" t="s">
-        <v>1574</v>
       </c>
       <c r="G345" s="6">
         <v>1.0</v>
@@ -24368,19 +24375,19 @@
         <v>344.0</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C346" s="8">
         <v>44016.0</v>
       </c>
       <c r="D346" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E346" s="7" t="s">
         <v>1576</v>
       </c>
-      <c r="E346" s="7" t="s">
+      <c r="F346" s="11" t="s">
         <v>1577</v>
-      </c>
-      <c r="F346" s="11" t="s">
-        <v>1578</v>
       </c>
       <c r="G346" s="6">
         <v>1.0</v>
@@ -24406,19 +24413,19 @@
         <v>345.0</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C347" s="8">
         <v>44047.0</v>
       </c>
       <c r="D347" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E347" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="E347" s="7" t="s">
+      <c r="F347" s="11" t="s">
         <v>1581</v>
-      </c>
-      <c r="F347" s="11" t="s">
-        <v>1582</v>
       </c>
       <c r="G347" s="6">
         <v>1.0</v>
@@ -24444,19 +24451,19 @@
         <v>346.0</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C348" s="8">
         <v>44047.0</v>
       </c>
       <c r="D348" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E348" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="E348" s="7" t="s">
+      <c r="F348" s="11" t="s">
         <v>1585</v>
-      </c>
-      <c r="F348" s="11" t="s">
-        <v>1586</v>
       </c>
       <c r="G348" s="6">
         <v>1.0</v>
@@ -24482,19 +24489,19 @@
         <v>347.0</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C349" s="8">
         <v>44016.0</v>
       </c>
       <c r="D349" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E349" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="E349" s="7" t="s">
+      <c r="F349" s="11" t="s">
         <v>1589</v>
-      </c>
-      <c r="F349" s="11" t="s">
-        <v>1590</v>
       </c>
       <c r="G349" s="6">
         <v>1.0</v>
@@ -24520,19 +24527,19 @@
         <v>348.0</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C350" s="8">
         <v>43986.0</v>
       </c>
       <c r="D350" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E350" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="E350" s="7" t="s">
+      <c r="F350" s="11" t="s">
         <v>1593</v>
-      </c>
-      <c r="F350" s="11" t="s">
-        <v>1594</v>
       </c>
       <c r="G350" s="6">
         <v>1.0</v>
@@ -24558,19 +24565,19 @@
         <v>349.0</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C351" s="8">
         <v>44078.0</v>
       </c>
       <c r="D351" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E351" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="E351" s="7" t="s">
+      <c r="F351" s="11" t="s">
         <v>1597</v>
-      </c>
-      <c r="F351" s="11" t="s">
-        <v>1598</v>
       </c>
       <c r="G351" s="6">
         <v>1.0</v>
